--- a/data/Login.xlsx
+++ b/data/Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my files\BootCamp2020\Salesforce\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Selenium-Frameworks\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>makaia@testleaf.com</t>
+    <t>hari.radhakrishnan@qeagle.com</t>
   </si>
   <si>
-    <t>SelBootcamp$123</t>
+    <t>Qeagle@123</t>
   </si>
 </sst>
 </file>
@@ -382,16 +382,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,19 +399,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>